--- a/va_facility_data_2025-02-20/Jackson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jackson%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jackson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jackson%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc8dfe4528e79446984672cc2b8993a92"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9fb656c1ea444a029e2647cd5889d060"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1ca432339d9742179d9265c972f36ea4"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R76c6235bd0b147468d6a1002049cbc3c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R664983a6ab904bed94c802865403af0c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R74e262ccff1749daafc8ee9bcac39944"/>
   </x:sheets>
 </x:workbook>
 </file>
